--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,73 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="H7" s="2">
-        <v>43312</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -741,22 +748,28 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -770,22 +783,28 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -799,8 +818,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,22 +837,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,22 +989,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -962,27 +1015,33 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -991,13 +1050,19 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,22 +1074,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1038,22 +1105,28 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1062,13 +1135,19 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1076,42 +1155,48 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1125,8 +1210,14 @@
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,22 +1280,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1212,22 +1315,28 @@
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1241,8 +1350,14 @@
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,22 +1490,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1386,22 +1525,28 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1415,8 +1560,14 @@
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,22 +1595,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -1473,42 +1630,54 @@
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="H38" s="2">
-        <v>43312</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1704,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,22 +1770,28 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1615,56 +1800,68 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1678,49 +1875,61 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,22 +1945,28 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -1760,13 +1975,19 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2085,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,14 +2102,14 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,22 +2155,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -1934,13 +2185,19 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,153 +2224,185 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
+        <v>700</v>
+      </c>
+      <c r="M61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2535,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
-        <v>800</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2865,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,56 +2935,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="H80" s="2">
-        <v>43312</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -2621,8 +3010,14 @@
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,22 +3029,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -2663,8 +3060,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,22 +3235,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -2837,8 +3270,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,22 +3289,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -2873,14 +3314,20 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,22 +3390,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -2966,8 +3425,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,22 +3580,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3124,22 +3615,28 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3153,22 +3650,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -3180,6 +3683,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,80 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -754,25 +758,28 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,16 +808,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,25 +852,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,26 +1017,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
@@ -1021,31 +1048,34 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
@@ -1056,13 +1086,16 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,26 +1109,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1111,13 +1145,16 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1128,8 +1165,8 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1141,24 +1178,27 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1167,40 +1207,43 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
@@ -1216,8 +1259,11 @@
       <c r="M23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,26 +1335,29 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
@@ -1321,26 +1373,29 @@
       <c r="M26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,26 +1563,29 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1531,26 +1601,29 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,26 +1677,29 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
@@ -1636,48 +1715,54 @@
       <c r="M35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,22 +1792,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -1732,8 +1819,8 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,25 +1866,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1806,21 +1899,24 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3">
+        <v>200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
@@ -1837,8 +1933,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1846,25 +1942,28 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1881,25 +1980,28 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -1908,16 +2010,19 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,12 +2032,12 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1951,43 +2056,49 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2111,8 +2231,8 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,25 +2284,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2191,13 +2317,16 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,25 +2356,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2253,33 +2384,36 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2288,42 +2422,45 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -2331,43 +2468,49 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2378,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
@@ -2399,10 +2542,13 @@
         <v>700</v>
       </c>
       <c r="M61" s="3">
+        <v>700</v>
+      </c>
+      <c r="N61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1100</v>
       </c>
       <c r="M72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-600</v>
       </c>
       <c r="L76" s="3">
         <v>-600</v>
       </c>
       <c r="M76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,66 +3130,72 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,25 +3229,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,25 +3455,28 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-200</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3320,14 +3541,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3407,14 +3637,14 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,25 +3829,28 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3638,8 +3887,8 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3656,25 +3905,28 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -3689,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,73 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,19 +739,19 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -761,8 +768,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -799,8 +812,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,13 +827,13 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -822,8 +841,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -837,8 +856,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,13 +878,15 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -867,8 +894,8 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -876,8 +903,8 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -891,8 +918,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +962,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1006,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1050,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1069,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1027,23 +1080,23 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
@@ -1051,13 +1104,19 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,23 +1124,23 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
@@ -1089,13 +1148,19 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,32 +1175,34 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1148,31 +1215,37 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1181,75 +1254,87 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
@@ -1262,8 +1347,14 @@
       <c r="N23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1391,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,32 +1435,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
@@ -1376,32 +1479,38 @@
       <c r="N26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
@@ -1414,8 +1523,14 @@
       <c r="N27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1567,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1611,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,32 +1699,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1604,32 +1743,38 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
@@ -1642,8 +1787,14 @@
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,32 +1831,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
@@ -1718,51 +1875,63 @@
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,28 +1964,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1822,17 +1995,23 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,22 +2048,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1892,8 +2077,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1902,27 +2087,33 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1936,17 +2127,23 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1968,8 +2165,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1983,46 +2180,58 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,15 +2244,15 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2059,8 +2268,14 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2070,11 +2285,11 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2082,23 +2297,29 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2356,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,34 +2444,40 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2249,8 +2488,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,31 +2532,37 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -2320,13 +2571,19 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2616,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,10 +2627,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2378,39 +2639,45 @@
         <v>4</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2418,99 +2685,117 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2524,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2533,22 +2818,28 @@
         <v>900</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>900</v>
+      </c>
+      <c r="L61" s="3">
         <v>800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>700</v>
       </c>
       <c r="N61" s="3">
+        <v>700</v>
+      </c>
+      <c r="O61" s="3">
+        <v>700</v>
+      </c>
+      <c r="P61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2876,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3008,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3202,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3246,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3422,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,75 +3510,87 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
@@ -3214,8 +3603,14 @@
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,22 +3625,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3253,8 +3650,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3268,8 +3665,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,31 +3885,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3496,8 +3929,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3951,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3544,14 +3985,20 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4079,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3640,17 +4099,17 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3664,8 +4123,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,31 +4317,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3870,8 +4361,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3890,11 +4387,11 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3908,22 +4405,28 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
@@ -3931,8 +4434,8 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -3944,6 +4447,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -745,16 +749,16 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -774,34 +778,37 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -818,34 +825,37 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,34 +893,35 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,13 +1097,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
@@ -1086,20 +1113,20 @@
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
@@ -1110,18 +1137,21 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1130,20 +1160,20 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
@@ -1154,13 +1184,16 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,35 +1210,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1221,23 +1255,26 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,8 +1284,8 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1260,33 +1297,36 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1295,49 +1335,52 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
@@ -1353,8 +1396,11 @@
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,35 +1490,38 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
@@ -1485,35 +1537,38 @@
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
@@ -1529,8 +1584,11 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,35 +1772,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1749,35 +1819,38 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
@@ -1793,8 +1866,11 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,35 +1913,38 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
@@ -1881,57 +1960,63 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,31 +2052,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -2001,8 +2088,8 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2068,20 +2161,20 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2093,13 +2186,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2203,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2115,8 +2211,8 @@
       <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2133,8 +2229,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2142,34 +2238,37 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2186,34 +2285,37 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2222,16 +2324,19 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2250,12 +2355,12 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2274,8 +2379,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2291,35 +2399,38 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2476,11 +2596,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,34 +2661,37 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -2577,13 +2703,16 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2633,19 +2764,19 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2654,42 +2785,45 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -2698,51 +2832,54 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -2750,8 +2887,11 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2759,43 +2899,46 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2815,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
-      </c>
-      <c r="M61" s="3">
-        <v>700</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
@@ -2836,10 +2979,13 @@
         <v>700</v>
       </c>
       <c r="P61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,8 +3169,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3023,43 +3181,46 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
         <v>-2500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1100</v>
       </c>
       <c r="P72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-600</v>
       </c>
       <c r="O76" s="3">
         <v>-600</v>
       </c>
       <c r="P76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,84 +3705,90 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
@@ -3609,8 +3804,11 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3641,20 +3840,20 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,34 +4105,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3991,14 +4212,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4105,14 +4335,14 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,34 +4566,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4367,34 +4613,37 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4411,34 +4660,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4453,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,16 +756,16 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,28 +797,28 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,37 +907,38 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1134,7 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1116,20 +1143,20 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
@@ -1140,13 +1167,16 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1184,7 @@
         <v>-500</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1163,19 +1193,19 @@
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1187,13 +1217,16 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,38 +1244,39 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1258,26 +1292,29 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1287,8 +1324,8 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1300,36 +1337,39 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1338,51 +1378,54 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,37 +1542,40 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1540,37 +1592,40 @@
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,38 +1842,41 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1822,37 +1892,40 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,37 +1992,40 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,34 +2139,35 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -2091,8 +2178,8 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2164,20 +2257,20 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2189,13 +2282,16 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2206,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2214,8 +2310,8 @@
       <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2232,8 +2328,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2252,26 +2351,26 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2288,37 +2387,40 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2327,16 +2429,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2358,12 +2463,12 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2402,35 +2510,38 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2599,11 +2719,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,37 +2787,40 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -2706,13 +2832,16 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2767,19 +2898,19 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2788,45 +2919,48 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2835,54 +2969,57 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -2890,55 +3027,61 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
       </c>
       <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2961,19 +3104,19 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
-      </c>
-      <c r="N61" s="3">
-        <v>700</v>
       </c>
       <c r="O61" s="3">
         <v>700</v>
@@ -2982,10 +3125,13 @@
         <v>700</v>
       </c>
       <c r="Q61" s="3">
+        <v>700</v>
+      </c>
+      <c r="R61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
       </c>
       <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-600</v>
       </c>
       <c r="P76" s="3">
         <v>-600</v>
       </c>
       <c r="Q76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,89 +3897,95 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3843,20 +4042,20 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,37 +4322,40 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4215,14 +4436,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,37 +4542,40 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,37 +4812,40 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4642,11 +4891,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4663,37 +4912,40 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -2163,8 +2163,8 @@
       <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2263,8 +2263,8 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2363,8 +2363,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2413,8 +2413,8 @@
       <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2463,8 +2463,8 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>600</v>
       </c>
       <c r="K47" s="3">
         <v>600</v>
@@ -2513,8 +2513,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2813,8 +2813,8 @@
       <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
@@ -2903,8 +2903,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2953,8 +2953,8 @@
       <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3003,8 +3003,8 @@
       <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
@@ -3053,8 +3053,8 @@
       <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="J60" s="3">
+        <v>1100</v>
       </c>
       <c r="K60" s="3">
         <v>1100</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="K61" s="3">
         <v>900</v>
@@ -3353,8 +3353,8 @@
       <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="J66" s="3">
+        <v>2000</v>
       </c>
       <c r="K66" s="3">
         <v>2000</v>
@@ -3623,8 +3623,8 @@
       <c r="I72" s="3">
         <v>-5500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="J72" s="3">
+        <v>-2500</v>
       </c>
       <c r="K72" s="3">
         <v>-2500</v>
@@ -3823,8 +3823,8 @@
       <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+      <c r="J76" s="3">
+        <v>-1400</v>
       </c>
       <c r="K76" s="3">
         <v>-1400</v>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,84 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,16 +762,16 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -788,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,28 +806,28 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -838,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -888,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,40 +920,41 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -958,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,19 +1150,20 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1146,20 +1172,20 @@
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
@@ -1170,24 +1196,27 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
@@ -1196,19 +1225,19 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1220,13 +1249,16 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,32 +1287,32 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1295,29 +1328,32 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1327,8 +1363,8 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1340,39 +1376,42 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1381,54 +1420,57 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1445,8 +1487,11 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,40 +1593,43 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1595,40 +1646,43 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1645,8 +1699,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,32 +1923,32 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1895,40 +1964,43 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1945,8 +2017,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,40 +2070,43 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2045,63 +2123,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,37 +2225,38 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
@@ -2181,8 +2267,8 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2190,8 +2276,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2329,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2260,20 +2352,20 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2285,13 +2377,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,7 +2400,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2313,8 +2408,8 @@
       <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2331,8 +2426,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2340,13 +2435,16 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>100</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
@@ -2354,14 +2452,14 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2369,11 +2467,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2390,40 +2488,43 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2432,16 +2533,19 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2463,14 +2567,14 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>600</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>600</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2490,8 +2594,11 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2514,34 +2621,37 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2806,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2722,11 +2841,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2740,8 +2859,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,40 +2912,43 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
+      <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -2835,13 +2960,16 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3009,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2901,7 +3031,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2909,11 +3039,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2922,48 +3052,51 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -2972,16 +3105,19 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,40 +3125,40 @@
         <v>1300</v>
       </c>
       <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3030,58 +3166,64 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1100</v>
       </c>
       <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3104,22 +3246,22 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>900</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>700</v>
       </c>
       <c r="P61" s="3">
         <v>700</v>
@@ -3128,33 +3270,36 @@
         <v>700</v>
       </c>
       <c r="R61" s="3">
+        <v>700</v>
+      </c>
+      <c r="S61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3180,8 +3325,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>1200</v>
       </c>
       <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2000</v>
       </c>
       <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="L66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>700</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-2500</v>
       </c>
       <c r="K72" s="3">
         <v>-2500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="L72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1100</v>
       </c>
       <c r="R72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1400</v>
       </c>
       <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="L76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-600</v>
       </c>
       <c r="Q76" s="3">
         <v>-600</v>
       </c>
       <c r="R76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,95 +4088,101 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -4005,8 +4199,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4048,17 +4246,17 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4075,8 +4273,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4538,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,31 +4550,31 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4375,8 +4591,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4439,14 +4659,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4771,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4572,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4595,8 +4824,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,40 +5057,43 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4865,8 +5110,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4894,11 +5142,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4915,40 +5163,43 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4963,6 +5214,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,92 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +758,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -765,19 +773,19 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -794,8 +802,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,13 +817,13 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -818,22 +832,22 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -847,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -871,13 +891,13 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -885,8 +905,8 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -900,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,28 +947,30 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -950,8 +978,8 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -959,8 +987,8 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -974,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,47 +1203,49 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
       </c>
       <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
@@ -1199,51 +1253,57 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1252,13 +1312,19 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,38 +1355,38 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1331,46 +1399,52 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
@@ -1379,104 +1453,116 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1490,8 +1576,14 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,46 +1694,52 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1649,46 +1753,52 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1702,8 +1812,14 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1923,38 +2063,38 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1967,46 +2107,52 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2020,8 +2166,14 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,46 +2225,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2126,66 +2284,78 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,43 +2398,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2270,17 +2444,23 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,16 +2512,22 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2355,23 +2541,23 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2380,21 +2566,27 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2403,19 +2595,19 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>200</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2429,34 +2621,40 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2464,20 +2662,20 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2491,97 +2689,109 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2597,8 +2807,14 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2624,34 +2840,40 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2844,14 +3084,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2862,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,46 +3161,52 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -2963,13 +3215,19 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,13 +3270,15 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3034,143 +3296,161 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
       <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3">
+        <v>900</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3178,52 +3458,58 @@
         <v>1700</v>
       </c>
       <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3249,45 +3535,51 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>900</v>
-      </c>
-      <c r="L61" s="3">
-        <v>900</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>900</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q61" s="3">
         <v>800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>700</v>
       </c>
       <c r="R61" s="3">
         <v>700</v>
       </c>
       <c r="S61" s="3">
+        <v>700</v>
+      </c>
+      <c r="T61" s="3">
+        <v>700</v>
+      </c>
+      <c r="U61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3301,11 +3593,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3328,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,8 +3797,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3496,52 +3812,58 @@
         <v>1700</v>
       </c>
       <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,13 +3997,19 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3720,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-1400</v>
       </c>
       <c r="E76" s="3">
         <v>-800</v>
       </c>
       <c r="F76" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="G76" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-900</v>
       </c>
       <c r="I76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,104 +4469,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4202,8 +4592,14 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,16 +4619,18 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4246,23 +4644,23 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4276,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,46 +4969,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4594,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4662,14 +5104,20 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4804,16 +5264,16 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4827,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,46 +5546,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5113,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5145,14 +5643,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5166,37 +5664,43 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="F102" s="3">
         <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
@@ -5204,8 +5708,8 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5217,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -779,16 +783,16 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -808,19 +812,22 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -829,28 +836,28 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,49 +962,50 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,28 +1231,29 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1235,20 +1262,20 @@
         <v>400</v>
       </c>
       <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
@@ -1259,13 +1286,16 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,19 +1303,19 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
@@ -1294,19 +1324,19 @@
         <v>-300</v>
       </c>
       <c r="L18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1318,13 +1348,16 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,50 +1379,51 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1405,38 +1439,41 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1446,8 +1483,8 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1459,48 +1496,51 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1509,63 +1549,66 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,49 +1749,52 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1759,49 +1811,52 @@
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,50 +2121,53 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2113,49 +2183,52 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,49 +2307,52 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2409,37 +2496,37 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2450,8 +2537,8 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2529,8 +2622,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2547,20 +2640,20 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2572,25 +2665,28 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
@@ -2601,7 +2697,7 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2609,8 +2705,8 @@
       <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>200</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2627,8 +2723,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2659,14 +2758,14 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2674,11 +2773,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2695,49 +2794,52 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2746,16 +2848,19 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2780,20 +2885,20 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>600</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>600</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2846,34 +2954,37 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3090,11 +3210,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,49 +3290,52 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
+      <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -3221,13 +3347,16 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,16 +3402,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3302,7 +3433,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3310,11 +3441,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3323,16 +3454,19 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,40 +3474,40 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -3382,16 +3516,19 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,49 +3536,49 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1300</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>900</v>
       </c>
       <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>900</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
       <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -3449,67 +3586,73 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
       </c>
       <c r="I60" s="3">
         <v>1200</v>
       </c>
       <c r="J60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1100</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="O60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3541,22 +3684,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>900</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>700</v>
       </c>
       <c r="S61" s="3">
         <v>700</v>
@@ -3565,10 +3708,13 @@
         <v>700</v>
       </c>
       <c r="U61" s="3">
+        <v>700</v>
+      </c>
+      <c r="V61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3578,11 +3724,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3599,8 +3745,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1200</v>
       </c>
       <c r="J66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2000</v>
       </c>
       <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="O66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>700</v>
       </c>
       <c r="U66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,16 +4168,19 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-2500</v>
       </c>
       <c r="N72" s="3">
         <v>-2500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="O72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-1100</v>
       </c>
       <c r="U72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1400</v>
       </c>
       <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="O76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-600</v>
       </c>
       <c r="T76" s="3">
         <v>-600</v>
       </c>
       <c r="U76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,113 +4664,119 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4632,8 +4831,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4650,20 +4849,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,49 +5189,52 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5110,14 +5331,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5270,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,40 +5807,40 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5649,11 +5898,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5670,49 +5919,52 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,113 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -786,16 +789,16 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -815,22 +818,25 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -839,28 +845,28 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -877,13 +883,16 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -901,28 +910,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -939,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,43 +985,43 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,31 +1257,32 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1265,20 +1291,20 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
@@ -1289,36 +1315,39 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1327,19 +1356,19 @@
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1351,13 +1380,16 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,53 +1412,54 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1442,41 +1475,44 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1486,8 +1522,8 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1499,51 +1535,54 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1552,66 +1591,69 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1628,8 +1670,11 @@
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1735,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,52 +1800,55 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1814,52 +1865,55 @@
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1876,8 +1930,11 @@
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,53 +2190,56 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2186,52 +2255,55 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2248,8 +2320,11 @@
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,52 +2385,55 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2372,75 +2450,81 @@
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,49 +2572,50 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -2540,8 +2626,8 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2549,8 +2635,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,13 +2700,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
@@ -2625,8 +2717,8 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2643,20 +2735,20 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2668,13 +2760,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,14 +2777,14 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
@@ -2700,7 +2795,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2708,8 +2803,8 @@
       <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>200</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2726,8 +2821,8 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2735,8 +2830,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2761,14 +2859,14 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2776,11 +2874,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2797,8 +2895,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,43 +2907,43 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2851,16 +2952,19 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2888,20 +2992,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>600</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>600</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2921,8 +3025,11 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2957,34 +3064,37 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3285,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3213,11 +3332,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3231,8 +3350,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3415,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,43 +3427,43 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>100</v>
+      <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -3350,13 +3475,16 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,19 +3532,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3436,7 +3566,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3444,11 +3574,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3457,60 +3587,63 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3519,69 +3652,72 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>900</v>
       </c>
       <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="P59" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
       <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
@@ -3589,70 +3725,76 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
       </c>
       <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="P60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3687,22 +3829,22 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>900</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
-      </c>
-      <c r="S61" s="3">
-        <v>700</v>
       </c>
       <c r="T61" s="3">
         <v>700</v>
@@ -3711,10 +3853,13 @@
         <v>700</v>
       </c>
       <c r="V61" s="3">
+        <v>700</v>
+      </c>
+      <c r="W61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3727,11 +3872,11 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3748,8 +3893,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3775,8 +3920,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1200</v>
       </c>
       <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2000</v>
       </c>
       <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="P66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>700</v>
       </c>
       <c r="V66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4180,10 +4347,10 @@
         <v>200</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-2500</v>
       </c>
       <c r="O72" s="3">
         <v>-2500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="P72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-1100</v>
       </c>
       <c r="V72" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1400</v>
       </c>
       <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="P76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-600</v>
       </c>
       <c r="U76" s="3">
         <v>-600</v>
       </c>
       <c r="V76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,119 +4855,125 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4796,8 +4990,11 @@
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4834,8 +5032,8 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4852,20 +5050,20 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4882,8 +5080,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5405,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,43 +5417,43 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5254,8 +5470,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5497,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5334,14 +5554,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5690,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5503,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5526,8 +5755,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6040,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5810,40 +6055,40 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5860,8 +6105,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5901,11 +6149,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5922,8 +6170,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5931,43 +6182,43 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5982,6 +6233,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>SAML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,127 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -792,19 +800,19 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -821,34 +829,40 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -857,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -886,20 +900,26 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -913,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -922,13 +942,13 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -936,8 +956,8 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -951,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,40 +1002,42 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1017,8 +1045,8 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="P12" s="3">
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1026,8 +1054,8 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1041,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1140,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,59 +1310,61 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
@@ -1318,63 +1372,69 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
       <c r="L18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1383,13 +1443,19 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,59 +1479,61 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1478,58 +1546,64 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
@@ -1538,128 +1612,140 @@
         <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1673,8 +1759,14 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,58 +1901,64 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -1868,58 +1972,64 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -1933,8 +2043,14 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,59 +2327,65 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2258,58 +2398,64 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2323,8 +2469,14 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,58 +2540,64 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2453,78 +2611,90 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,55 +2745,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
@@ -2629,17 +2803,23 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,28 +2883,34 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2738,23 +2924,23 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2763,33 +2949,39 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2798,19 +2990,19 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>200</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2824,17 +3016,23 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2848,22 +3046,22 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2871,20 +3069,20 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2898,73 +3096,85 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2995,24 +3205,24 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3028,16 +3238,22 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3067,34 +3283,40 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3158,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3335,14 +3575,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3353,8 +3593,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,58 +3664,64 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>100</v>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
@@ -3478,13 +3730,19 @@
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,16 +3793,18 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3551,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3569,167 +3831,185 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1100</v>
       </c>
       <c r="O59" s="3">
         <v>900</v>
       </c>
       <c r="P59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3">
+        <v>900</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3737,64 +4017,70 @@
         <v>2300</v>
       </c>
       <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1400</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
       </c>
       <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
-        <v>100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3832,42 +4118,48 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>900</v>
-      </c>
-      <c r="P61" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>900</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>900</v>
+      </c>
+      <c r="U61" s="3">
         <v>800</v>
-      </c>
-      <c r="T61" s="3">
-        <v>700</v>
-      </c>
-      <c r="U61" s="3">
-        <v>700</v>
       </c>
       <c r="V61" s="3">
         <v>700</v>
       </c>
       <c r="W61" s="3">
+        <v>700</v>
+      </c>
+      <c r="X61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3875,14 +4167,14 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3896,11 +4188,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3923,8 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,8 +4428,14 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4127,64 +4443,70 @@
         <v>2300</v>
       </c>
       <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1400</v>
       </c>
       <c r="H66" s="3">
         <v>1700</v>
       </c>
       <c r="I66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,25 +4668,31 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>100</v>
+      </c>
+      <c r="E70" s="3">
+        <v>100</v>
+      </c>
+      <c r="F70" s="3">
         <v>200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>200</v>
       </c>
-      <c r="F70" s="3">
-        <v>100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -4403,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-800</v>
       </c>
       <c r="J76" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="K76" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-900</v>
       </c>
       <c r="M76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,128 +5236,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4993,8 +5383,14 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5035,11 +5433,11 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5053,23 +5451,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5083,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,8 +5836,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5417,49 +5851,49 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5473,8 +5907,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5557,14 +5999,20 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5735,16 +6195,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5758,8 +6218,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,58 +6529,64 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>400</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6108,8 +6600,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6152,14 +6650,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6173,8 +6671,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6182,40 +6686,40 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>500</v>
       </c>
       <c r="J102" s="3">
         <v>200</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>4</v>
@@ -6223,8 +6727,8 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -6236,6 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
